--- a/AndromedaV3.2/Bill of Materials-AndromedaV3.2.xlsx
+++ b/AndromedaV3.2/Bill of Materials-AndromedaV3.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\Andromeda-V3.2\AndromedaV3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D78EA3-B510-4A15-B6C8-4FED4DC9A7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8F9CF7-458E-4562-8C81-85DED0D3F46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{7A980DE2-564F-41E8-B0C3-112370825700}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{F6F75250-9299-4A83-B537-CA3F27A8FD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-AndromedaV3.2" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>CAP CER 10UF 10V X5R 0603</t>
   </si>
   <si>
-    <t>C1, C17, C19, C20</t>
+    <t>C1, C17, C19, C20, C26</t>
   </si>
   <si>
     <t>0603[1608]</t>
@@ -74,7 +74,7 @@
     <t>CAP CER 0.1UF 25V X7R 0603</t>
   </si>
   <si>
-    <t>C2, C3, C4, C5, C12, C13, C14, C15, C16, C18, C21, C22, C23, C24</t>
+    <t>C2, C3, C4, C5, C12, C13, C14, C15, C16, C18, C21, C22, C23, C24, C27, C28</t>
   </si>
   <si>
     <t>CL10A105KP8NNNC</t>
@@ -221,7 +221,7 @@
     <t>RES SMD 10K OHM 5% 1/10W 0603</t>
   </si>
   <si>
-    <t>R2, R6, R7, R8, R9, R11, R12, R13, R14, R15, R16, R17, R18</t>
+    <t>R2, R6, R7, R8, R11, R14, R15, R16, R17, R18</t>
   </si>
   <si>
     <t>RC1608F331CS</t>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CC084D-42FC-4508-BA63-10C73E11FF17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467CA812-6709-49C4-BB96-FD4944F7F484}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
         <v>59</v>
       </c>
       <c r="F19" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">

--- a/AndromedaV3.2/Bill of Materials-AndromedaV3.2.xlsx
+++ b/AndromedaV3.2/Bill of Materials-AndromedaV3.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\Andromeda-V3.2\AndromedaV3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8F9CF7-458E-4562-8C81-85DED0D3F46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59465BD-8AA4-4112-A8CA-E9FE50A91250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{F6F75250-9299-4A83-B537-CA3F27A8FD58}"/>
+    <workbookView xWindow="-38400" yWindow="940" windowWidth="17280" windowHeight="8960" xr2:uid="{B09AAECC-13FA-49FB-BF38-CB3CDB259457}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-AndromedaV3.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>Comment</t>
   </si>
@@ -62,7 +62,7 @@
     <t>CAP CER 10UF 10V X5R 0603</t>
   </si>
   <si>
-    <t>C1, C17, C19, C20, C26</t>
+    <t>C1, C17, C20, C26</t>
   </si>
   <si>
     <t>0603[1608]</t>
@@ -113,6 +113,15 @@
     <t>C10, C11</t>
   </si>
   <si>
+    <t>GRM1885C1H103JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
     <t>TAJD157K016RNJ</t>
   </si>
   <si>
@@ -164,7 +173,16 @@
     <t>CONN RCPT 4POS FEMALE 0.1 GOLD PCB</t>
   </si>
   <si>
-    <t>J3, J4</t>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>SSW-106-01-F-S</t>
+  </si>
+  <si>
+    <t>CONN RCPT 6POS FEMALE 0.1 GOLD PCB</t>
+  </si>
+  <si>
+    <t>J4, J7, J8</t>
   </si>
   <si>
     <t>SSW-108-01-F-S</t>
@@ -176,15 +194,6 @@
     <t>J5, J6</t>
   </si>
   <si>
-    <t>SSW-106-01-F-S</t>
-  </si>
-  <si>
-    <t>CONN RCPT 6POS FEMALE 0.1 GOLD PCB</t>
-  </si>
-  <si>
-    <t>J7, J8</t>
-  </si>
-  <si>
     <t>0430450400</t>
   </si>
   <si>
@@ -192,18 +201,6 @@
   </si>
   <si>
     <t>J9</t>
-  </si>
-  <si>
-    <t>Mounting Hole</t>
-  </si>
-  <si>
-    <t>#4 Screw, 0.116in Diameter</t>
-  </si>
-  <si>
-    <t>MH1, MH2, MH3, MH4</t>
-  </si>
-  <si>
-    <t>MOUNT-HOLE</t>
   </si>
   <si>
     <t>RC0603FR-0730KL</t>
@@ -684,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467CA812-6709-49C4-BB96-FD4944F7F484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118418B9-641F-4716-B611-6197E53B7C41}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -734,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -848,7 +845,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -894,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -914,7 +911,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -934,10 +931,10 @@
         <v>37</v>
       </c>
       <c r="F12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -974,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -994,10 +991,10 @@
         <v>46</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1028,30 +1025,30 @@
         <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1059,19 +1056,19 @@
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4">
         <v>10</v>
@@ -1079,19 +1076,19 @@
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="4">
         <v>4</v>
@@ -1099,19 +1096,19 @@
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1119,19 +1116,19 @@
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1139,19 +1136,19 @@
     </row>
     <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1159,19 +1156,19 @@
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1179,19 +1176,19 @@
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1199,19 +1196,19 @@
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1219,19 +1216,19 @@
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1240,6 +1237,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>